--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68567A5-0AD6-4E69-A3AA-AA2DB6C54966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28567C3A-3F08-4B95-8D2A-057076B15F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Academic Timeline(03.08.2023)" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -533,13 +533,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -831,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -994,7 +994,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1017,7 +1017,7 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
@@ -1103,21 +1103,21 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="5">
         <v>8</v>
       </c>
-      <c r="D15" s="5">
-        <v>10</v>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="5">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+      <c r="G15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>67</v>
@@ -1126,7 +1126,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1168,42 +1168,42 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
-        <v>5</v>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="5">
-        <v>6</v>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+      <c r="G19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>68</v>
@@ -1212,7 +1212,7 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1439,7 +1439,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="30" t="s">
         <v>39</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="31" t="s">
         <v>40</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D51" s="8">
         <f>SUM(D8:D36)</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="18" t="s">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="G51" s="8">
         <f>C51-D51</f>
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -1726,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD14661-423C-415A-8AB9-0D5C6D4539AE}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -1847,13 +1847,13 @@
       <c r="G7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1879,7 +1879,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1953,7 +1953,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>62</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2035,7 +2035,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2064,7 +2064,7 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2085,7 +2085,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2127,7 +2127,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="5">
@@ -2153,7 +2153,7 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2177,7 +2177,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="4" t="s">
         <v>61</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="11" t="s">
         <v>62</v>
       </c>
@@ -2359,12 +2359,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2585,15 +2582,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9761D45E-1D6F-403A-BC05-AA70C5A970CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54363156-af09-451d-95c0-4bb150694616"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0588193f-5437-40c0-903e-14b41885f902"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2618,18 +2627,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9761D45E-1D6F-403A-BC05-AA70C5A970CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54363156-af09-451d-95c0-4bb150694616"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0588193f-5437-40c0-903e-14b41885f902"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28567C3A-3F08-4B95-8D2A-057076B15F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37F7AE-F788-46F2-B6C1-2566A6D03090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -831,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1110,14 +1110,14 @@
       <c r="C15" s="5">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
+      <c r="D15" s="5">
+        <v>8</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>67</v>
@@ -1175,14 +1175,14 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
+      <c r="D18" s="5">
+        <v>5</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1196,14 +1196,14 @@
       <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
+      <c r="D19" s="5">
+        <v>7</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>68</v>
@@ -1220,13 +1220,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>69</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D51" s="8">
         <f>SUM(D8:D36)</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="18" t="s">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="G51" s="8">
         <f>C51-D51</f>
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2365,6 +2365,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED5B6197DC005B418EDBAD81ECC78C65" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6af9fa09ccb0c32c90fa7665eb902fd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54363156-af09-451d-95c0-4bb150694616" xmlns:ns4="0588193f-5437-40c0-903e-14b41885f902" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ada4b5171e24161cb51969d825ceddb" ns3:_="" ns4:_="">
     <xsd:import namespace="54363156-af09-451d-95c0-4bb150694616"/>
@@ -2581,15 +2590,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9761D45E-1D6F-403A-BC05-AA70C5A970CD}">
   <ds:schemaRefs>
@@ -2608,6 +2608,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76EE25-C5C4-4176-B8D4-C72CCF8A1B82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2624,12 +2632,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37F7AE-F788-46F2-B6C1-2566A6D03090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E699AD43-3CBF-4E2C-ADC5-8329E2B0F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -64,18 +64,164 @@
     <t>Project Planner: Sasha Stepanov</t>
   </si>
   <si>
-    <r>
-      <t>Review Date:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">Presentation </t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>W.I.L and Confidentiality Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic Deliverables </t>
+  </si>
+  <si>
+    <t>Project Proposal</t>
+  </si>
+  <si>
+    <t>Project Proposal Checklist</t>
+  </si>
+  <si>
+    <t>Checking the proporsal for the presence of all the necessary parts.</t>
+  </si>
+  <si>
+    <t>Project Proposal Sign off</t>
+  </si>
+  <si>
+    <t>Signed by people who involved in a project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiarization with a proposal requirements. </t>
+  </si>
+  <si>
+    <t>Project Details</t>
+  </si>
+  <si>
+    <t>Project Scope</t>
+  </si>
+  <si>
+    <t>Stakeholder Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Required Skills </t>
+  </si>
+  <si>
+    <t>Burndown Chart</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Professionalism</t>
+  </si>
+  <si>
+    <t>Sustainability, Inclusive Practice and Te Tiriti o Waitangi</t>
+  </si>
+  <si>
+    <t>Reflections</t>
+  </si>
+  <si>
+    <t>Revision of all sections for errors and shortcomings</t>
+  </si>
+  <si>
+    <t>Halfway Report</t>
+  </si>
+  <si>
+    <t>Progress Updates, Reflection, What went well, What did not go well, Improvements</t>
+  </si>
+  <si>
+    <t>Methodology Essay</t>
+  </si>
+  <si>
+    <t>At least 1000 words on the accepted theory or methodology</t>
+  </si>
+  <si>
+    <t>At least 1000 words that describes the industrial practice that was observed
+ while carrying out the project,</t>
+  </si>
+  <si>
+    <t>At least 1000 words that compares and contrasts the theory and observed 
+practice and shows critical reflection.</t>
+  </si>
+  <si>
+    <t>Final reflections and Self Evaluation</t>
+  </si>
+  <si>
+    <t>Revision of all chapters of the report and correction of errors. Compliance</t>
+  </si>
+  <si>
+    <t>Final Report Documentation</t>
+  </si>
+  <si>
+    <t>Short Paper</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Panel Presentation</t>
+  </si>
+  <si>
+    <t>Short Bioography about background and achievement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Point Presentation slides and a speech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice of speech and presentation </t>
+  </si>
+  <si>
+    <t>Short Paper summary of your project work based on the CITRENZ  template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation of a poster describing the completed project. </t>
+  </si>
+  <si>
+    <t>Project Plan,high-level plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Deliverables </t>
+  </si>
+  <si>
+    <t>Signing of all necessary documents such as non-disclosure form, contract and agreements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiarization with a company,team meeting. </t>
+  </si>
+  <si>
+    <t>Obtaining and processing all the necessary information in regards that project for proposal.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>took longer than I planned, it was hard to analyze all gathered data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section looked smaller before I started. Simple underestimation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is hard to work with a new tools,languages etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning was little bit frustrated,that is why took longer. </t>
+  </si>
+  <si>
+    <t>reviewed after meeting with a supervisor</t>
+  </si>
+  <si>
+    <t>Problem arised as I started to gather more info about company and project itself. Plus I had to review after meeting with a supervisor</t>
+  </si>
+  <si>
+    <t>Did not have anough information about deliverables from industry. reviewed after meeting with a supervisor</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -84,22 +230,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>TBA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Delivery Date:</t>
+      <t xml:space="preserve">The second phase </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <b/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">
+WS2 field configurations complete and in version control</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -108,11 +253,143 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>TBA</t>
+      <t xml:space="preserve">First Phase
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Familiarization with company,project,scope.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The third phase</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ Script to run simulations through API complete and in version control.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The fourth phase</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ WS2 Observed data formatted and in version control.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The fifth phase</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+System for visualising model performance complete and in version control
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The sixth phase</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Integrate testing with Git hub pull request process
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Model testing and version control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with observed data, formating it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating GUI </t>
+  </si>
+  <si>
+    <t>Integrate testing with Git hub pull request process</t>
+  </si>
+  <si>
+    <t>The overcomplication of the procedure on the part of the industry has led to a large delay.</t>
+  </si>
+  <si>
+    <t>Working on a model</t>
+  </si>
+  <si>
+    <t>Model testing and version control 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model testing and version control </t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Search for the necessary information</t>
   </si>
   <si>
     <r>
@@ -122,194 +399,25 @@
       <rPr>
         <b/>
         <sz val="22"/>
-        <color rgb="FFFFFF00"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NAME</t>
+      <t>SVS model</t>
     </r>
   </si>
   <si>
-    <t>Deliverables</t>
-  </si>
-  <si>
-    <t>W.I.L and Confidentiality Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic Deliverables </t>
-  </si>
-  <si>
-    <t>Project Proposal</t>
-  </si>
-  <si>
-    <t>Project Proposal Checklist</t>
-  </si>
-  <si>
-    <t>Checking the proporsal for the presence of all the necessary parts.</t>
-  </si>
-  <si>
-    <t>Project Proposal Sign off</t>
-  </si>
-  <si>
-    <t>Signed by people who involved in a project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiarization with a proposal requirements. </t>
-  </si>
-  <si>
-    <t>Project Details</t>
-  </si>
-  <si>
-    <t>Project Scope</t>
-  </si>
-  <si>
-    <t>Stakeholder Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Required Skills </t>
-  </si>
-  <si>
-    <t>Burndown Chart</t>
-  </si>
-  <si>
-    <t>Risk Management</t>
-  </si>
-  <si>
-    <t>Quality Assurance</t>
-  </si>
-  <si>
-    <t>Methodology</t>
-  </si>
-  <si>
-    <t>Professionalism</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>Sustainability, Inclusive Practice and Te Tiriti o Waitangi</t>
-  </si>
-  <si>
-    <t>Reflections</t>
-  </si>
-  <si>
-    <t>Revision of all sections for errors and shortcomings</t>
-  </si>
-  <si>
-    <t>Halfway Report</t>
-  </si>
-  <si>
-    <t>Progress Updates, Reflection, What went well, What did not go well, Improvements</t>
-  </si>
-  <si>
-    <t>Methodology Essay</t>
-  </si>
-  <si>
-    <t>At least 1000 words on the accepted theory or methodology</t>
-  </si>
-  <si>
-    <t>At least 1000 words that describes the industrial practice that was observed
- while carrying out the project,</t>
-  </si>
-  <si>
-    <t>At least 1000 words that compares and contrasts the theory and observed 
-practice and shows critical reflection.</t>
-  </si>
-  <si>
-    <t>Final reflections and Self Evaluation</t>
-  </si>
-  <si>
-    <t>Revision of all chapters of the report and correction of errors. Compliance</t>
-  </si>
-  <si>
-    <t>Final Report Documentation</t>
-  </si>
-  <si>
-    <t>Short Paper</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>Panel Presentation</t>
-  </si>
-  <si>
-    <t>Short Bioography about background and achievement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Point Presentation slides and a speech </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice of speech and presentation </t>
-  </si>
-  <si>
-    <t>Short Paper summary of your project work based on the CITRENZ  template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation of a poster describing the completed project. </t>
-  </si>
-  <si>
-    <t>Project Plan,high-level plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial Deliverables </t>
-  </si>
-  <si>
-    <t>Signing of all necessary documents such as non-disclosure form, contract and agreements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiarization with a company,team meeting. </t>
-  </si>
-  <si>
-    <t>Obtaining and processing all the necessary information in regards that project for proposal.</t>
-  </si>
-  <si>
-    <t>The second phase 
-creating a prototype model</t>
-  </si>
-  <si>
-    <t>First Phase (Familiarization)</t>
-  </si>
-  <si>
-    <t>Search for the necessary information</t>
-  </si>
-  <si>
-    <t>Working on a python model</t>
-  </si>
-  <si>
-    <t>Model testing</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>The third phase - Model improvement</t>
-  </si>
-  <si>
-    <t>Phase 3.5 as needed.
- Copy of the third phase.</t>
-  </si>
-  <si>
-    <t>4 Phase - Final. 
-Processing of all results and adjustment of model.</t>
-  </si>
-  <si>
-    <t>took longer than I planned, it was hard to analyze all gathered data</t>
-  </si>
-  <si>
-    <t>Time management took longer, I always had problems with that. Plus I was under the weater…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem arised as I started to gather more info about company and project itself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section looked smaller before I started. Simple underestimation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is hard to work with a new tools,languages etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the beginning was little bit frustrated,that is why took longer. </t>
+    <r>
+      <t xml:space="preserve">Project: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SVS model</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -319,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,12 +449,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -407,13 +509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="48"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -422,6 +517,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -462,82 +563,88 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,10 +936,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -841,18 +948,15 @@
     <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -863,10 +967,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -877,9 +978,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -893,7 +994,7 @@
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -908,7 +1009,7 @@
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="3"/>
       <c r="B5" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -933,7 +1034,7 @@
     </row>
     <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>0</v>
@@ -960,10 +1061,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -971,8 +1072,12 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="13">
+        <v>45140</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45163</v>
+      </c>
       <c r="G8" s="5">
         <f>C8-D8</f>
         <v>0</v>
@@ -994,11 +1099,11 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
-        <v>16</v>
+      <c r="A10" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1006,8 +1111,12 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="13">
+        <v>45136</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45136</v>
+      </c>
       <c r="G10" s="5">
         <f>C10-D10</f>
         <v>0</v>
@@ -1017,9 +1126,9 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -1027,22 +1136,26 @@
       <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="13">
+        <v>45140</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45157</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" ref="G11:G46" si="0">C11-D11</f>
         <v>-1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
@@ -1050,8 +1163,12 @@
       <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="13">
+        <v>45140</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45157</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1061,9 +1178,9 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1071,8 +1188,12 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="13">
+        <v>45140</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45140</v>
+      </c>
       <c r="G13" s="5">
         <f>C13-D13</f>
         <v>0</v>
@@ -1082,9 +1203,9 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>4</v>
@@ -1092,20 +1213,26 @@
       <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="13">
+        <v>45140</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45157</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5">
         <v>8</v>
@@ -1113,22 +1240,26 @@
       <c r="D15" s="5">
         <v>8</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="13">
+        <v>45142</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45150</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
@@ -1136,8 +1267,12 @@
       <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="13">
+        <v>45142</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45142</v>
+      </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1147,9 +1282,9 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -1157,8 +1292,12 @@
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="13">
+        <v>45143</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45143</v>
+      </c>
       <c r="G17" s="5">
         <f>C17-D17</f>
         <v>0</v>
@@ -1168,30 +1307,36 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
       <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
+        <v>45145</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45156</v>
+      </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -1199,22 +1344,26 @@
       <c r="D19" s="5">
         <v>7</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="13">
+        <v>45146</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45156</v>
+      </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -1222,22 +1371,26 @@
       <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="13">
+        <v>45142</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45142</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
@@ -1245,8 +1398,12 @@
       <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="13">
+        <v>45142</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45142</v>
+      </c>
       <c r="G21" s="5">
         <f>C21-D21</f>
         <v>1</v>
@@ -1256,9 +1413,9 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -1266,8 +1423,12 @@
       <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="13">
+        <v>45157</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45157</v>
+      </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1277,21 +1438,23 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13">
+        <v>45162</v>
+      </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1311,22 +1474,22 @@
     </row>
     <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="13">
+        <v>45162</v>
+      </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1346,22 +1509,22 @@
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="5">
         <v>0.5</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="13"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="13">
+        <v>45162</v>
+      </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -1382,22 +1545,22 @@
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C29" s="26">
         <v>30</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="13"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="13">
+        <v>45198</v>
+      </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1416,65 +1579,65 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
-        <v>37</v>
+      <c r="A31" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5">
         <v>7</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="13"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="13">
+        <v>45257</v>
+      </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5">
         <v>7</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="13"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="13">
+        <v>45257</v>
+      </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5">
         <v>6</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="13"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="13">
+        <v>45257</v>
+      </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1493,41 +1656,41 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
-        <v>43</v>
+      <c r="A35" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5">
         <v>20</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="13"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="13">
+        <v>45257</v>
+      </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" s="12">
         <v>6</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="13"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="13">
+        <v>45257</v>
+      </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1544,20 +1707,21 @@
     </row>
     <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="12">
         <v>5</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D38" s="26"/>
+      <c r="E38" s="13">
+        <v>45257</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1574,20 +1738,21 @@
     </row>
     <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="12">
         <v>8</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D40" s="26"/>
+      <c r="E40" s="13">
+        <v>45257</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1604,65 +1769,69 @@
     </row>
     <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C42" s="12">
         <v>2.5</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D42" s="26"/>
+      <c r="E42" s="13">
+        <v>45257</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C43" s="12">
         <v>5</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D43" s="26"/>
+      <c r="E43" s="13">
+        <v>45257</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C44" s="12">
         <v>2</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D44" s="26"/>
+      <c r="E44" s="13">
+        <v>45257</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D45" s="26"/>
+      <c r="E45" s="13">
+        <v>45257</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -1683,33 +1852,30 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G48" s="5"/>
-    </row>
-    <row r="51" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
+    <row r="49" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C49" s="8">
         <f>SUM(C8:C45)</f>
         <v>150</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D49" s="8">
         <f>SUM(D8:D36)</f>
-        <v>48</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="8">
-        <f>C51-D51</f>
-        <v>102</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="G49" s="8">
+        <f>C49-D49</f>
+        <v>94</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1724,29 +1890,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD14661-423C-415A-8AB9-0D5C6D4539AE}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1757,10 +1919,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1771,9 +1930,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1787,7 +1946,7 @@
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1802,7 +1961,7 @@
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="3"/>
       <c r="B5" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1827,7 +1986,7 @@
     </row>
     <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>0</v>
@@ -1853,11 +2012,11 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
-        <v>58</v>
+      <c r="A8" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
@@ -1865,23 +2024,27 @@
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="13">
+        <v>45142</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45154</v>
+      </c>
       <c r="G8" s="5">
         <f>C8-D8</f>
         <v>-1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -1889,27 +2052,37 @@
       <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13">
+        <v>45145</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="5">
         <f>C9-D9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
+      </c>
+      <c r="E10" s="13">
+        <v>45146</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45146</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1927,47 +2100,49 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>57</v>
+      <c r="A12" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13">
+        <v>45158</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="5">
         <f>C12-D12</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
-        <v>50</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="13">
+        <v>45169</v>
+      </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="5" t="e">
-        <f t="shared" ref="G13:G33" si="0">C13-D13</f>
-        <v>#VALUE!</v>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:G30" si="0">C13-D13</f>
+        <v>30</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
@@ -1975,21 +2150,21 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5">
-        <v>20</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="13">
+        <v>45169</v>
+      </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
@@ -1997,21 +2172,21 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="13">
+        <v>45170</v>
+      </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="5" t="e">
+      <c r="G15" s="5">
         <f>C15-D15</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
@@ -2019,125 +2194,155 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5">
+        <v>55</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="13">
+        <v>45189</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="12">
+        <v>20</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="13">
+        <v>45194</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="5">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A19" s="35"/>
+      <c r="B19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="13">
+        <v>45194</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="12">
-        <v>20</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="2"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A21" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="26">
+        <v>35</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="13">
+        <v>45203</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="13">
+        <v>45205</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="13">
+        <v>45208</v>
+      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
@@ -2148,210 +2353,156 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="26">
+        <v>65</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="13">
+        <v>45224</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>73</v>
+      </c>
+      <c r="C26" s="26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="34">
+        <v>45226</v>
+      </c>
+      <c r="G26" s="5">
+        <f>C26-D26</f>
+        <v>9</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+    </row>
+    <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36"/>
+      <c r="B27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="34">
+        <v>45230</v>
+      </c>
+      <c r="G27" s="5">
+        <f>C27-D27</f>
+        <v>1</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="26">
+        <v>50</v>
+      </c>
+      <c r="E29" s="34">
+        <v>45230</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G35" s="5"/>
-    </row>
-    <row r="38" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="26">
+        <v>4</v>
+      </c>
+      <c r="E30" s="34">
+        <v>45250</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8">
-        <f>SUM(C8:C32)</f>
-        <v>166</v>
-      </c>
-      <c r="D38" s="8">
-        <f>SUM(D8:D28)</f>
+      <c r="C33" s="8">
+        <f>SUM(C8:C30)</f>
+        <v>300</v>
+      </c>
+      <c r="D33" s="8">
+        <f>SUM(D8:D24)</f>
         <v>18</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="18" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="8">
-        <f>C38-D38</f>
-        <v>148</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="G33" s="8">
+        <f>C33-D33</f>
+        <v>282</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A12:A17"/>
+  <mergeCells count="5">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2365,15 +2516,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED5B6197DC005B418EDBAD81ECC78C65" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6af9fa09ccb0c32c90fa7665eb902fd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54363156-af09-451d-95c0-4bb150694616" xmlns:ns4="0588193f-5437-40c0-903e-14b41885f902" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ada4b5171e24161cb51969d825ceddb" ns3:_="" ns4:_="">
     <xsd:import namespace="54363156-af09-451d-95c0-4bb150694616"/>
@@ -2590,6 +2732,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9761D45E-1D6F-403A-BC05-AA70C5A970CD}">
   <ds:schemaRefs>
@@ -2608,14 +2759,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76EE25-C5C4-4176-B8D4-C72CCF8A1B82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2632,4 +2775,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E699AD43-3CBF-4E2C-ADC5-8329E2B0F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B764A-FFB6-49DB-B931-CBF57A15D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Academic Timeline(03.08.2023)" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -204,9 +204,6 @@
     <t>took longer than I planned, it was hard to analyze all gathered data</t>
   </si>
   <si>
-    <t xml:space="preserve">Section looked smaller before I started. Simple underestimation. </t>
-  </si>
-  <si>
     <t xml:space="preserve">It is hard to work with a new tools,languages etc. </t>
   </si>
   <si>
@@ -222,174 +219,48 @@
     <t>Did not have anough information about deliverables from industry. reviewed after meeting with a supervisor</t>
   </si>
   <si>
+    <t>Model testing and version control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with observed data, formating it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating GUI </t>
+  </si>
+  <si>
+    <t>Integrate testing with Git hub pull request process</t>
+  </si>
+  <si>
+    <t>The overcomplication of the procedure on the part of the industry has led to a large delay.</t>
+  </si>
+  <si>
+    <t>Working on a model</t>
+  </si>
+  <si>
+    <t>Model testing and version control 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model testing and version control </t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Search for the necessary information</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The second phase </t>
+      <t xml:space="preserve">Project: </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="22"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-WS2 field configurations complete and in version control</t>
+      <t>SVS Model</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">First Phase
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Familiarization with company,project,scope.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The third phase</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- Script to run simulations through API complete and in version control.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The fourth phase</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- WS2 Observed data formatted and in version control.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The fifth phase</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-System for visualising model performance complete and in version control
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The sixth phase</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Integrate testing with Git hub pull request process
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Model testing and version control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working with observed data, formating it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating GUI </t>
-  </si>
-  <si>
-    <t>Integrate testing with Git hub pull request process</t>
-  </si>
-  <si>
-    <t>The overcomplication of the procedure on the part of the industry has led to a large delay.</t>
-  </si>
-  <si>
-    <t>Working on a model</t>
-  </si>
-  <si>
-    <t>Model testing and version control 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model testing and version control </t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Search for the necessary information</t>
   </si>
   <si>
     <r>
@@ -402,22 +273,34 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>SVS model</t>
+      <t>SVS Model</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Project: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SVS model</t>
-    </r>
+    <t>First Phase
+ Familiarization with company,project,scope.</t>
+  </si>
+  <si>
+    <t>The second phase 
+WS2 field configurations complete and in version control</t>
+  </si>
+  <si>
+    <t>The third phase
+ Script to run simulations through API complete and in version control.</t>
+  </si>
+  <si>
+    <t>The fourth phase
+ WS2 Observed data formatted and in version control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fifth phase
+System for visualising model performance complete and in version control
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sixth phase
+Integrate testing with Git hub pull request process
+</t>
   </si>
 </sst>
 </file>
@@ -455,13 +338,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -471,12 +347,6 @@
       <b/>
       <sz val="22"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -526,6 +396,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -563,89 +445,102 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -938,19 +833,19 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G49"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.9140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.9140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.1640625" style="2"/>
@@ -960,8 +855,8 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -971,22 +866,22 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
-        <v>78</v>
+      <c r="A3" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -999,8 +894,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1008,13 +903,13 @@
     </row>
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="3"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1025,60 +920,60 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="22">
         <v>45140</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="22">
         <v>45163</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="21">
         <f>C8-D8</f>
         <v>0</v>
       </c>
@@ -1086,9 +981,9 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -1098,26 +993,26 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="22">
         <v>45136</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="22">
         <v>45136</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="21">
         <f>C10-D10</f>
         <v>0</v>
       </c>
@@ -1125,24 +1020,24 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="37"/>
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="21">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="21">
         <v>3</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="22">
         <v>45140</v>
       </c>
-      <c r="F11" s="13">
-        <v>45157</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="22">
+        <v>45143</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" ref="G11:G46" si="0">C11-D11</f>
         <v>-1</v>
       </c>
@@ -1152,24 +1047,24 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="21">
         <v>3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="21">
         <v>3</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="22">
         <v>45140</v>
       </c>
-      <c r="F12" s="13">
-        <v>45157</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="22">
+        <v>45144</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1177,24 +1072,24 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="37"/>
+      <c r="B13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="22">
         <v>45140</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="22">
         <v>45140</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="21">
         <f>C13-D13</f>
         <v>0</v>
       </c>
@@ -1202,78 +1097,78 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
+      <c r="B14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="21">
         <v>4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="21">
         <v>4</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="22">
         <v>45140</v>
       </c>
-      <c r="F14" s="13">
-        <v>45157</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="22">
+        <v>45143</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="37"/>
+      <c r="B15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="21">
+        <v>7</v>
+      </c>
+      <c r="D15" s="21">
         <v>8</v>
       </c>
-      <c r="D15" s="5">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="E15" s="22">
         <v>45142</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="22">
         <v>45150</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="37"/>
+      <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="21">
         <v>4</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="21">
         <v>4</v>
       </c>
-      <c r="E16" s="13">
-        <v>45142</v>
-      </c>
-      <c r="F16" s="13">
-        <v>45142</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="E16" s="22">
+        <v>45136</v>
+      </c>
+      <c r="F16" s="22">
+        <v>45136</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1281,24 +1176,24 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="37"/>
+      <c r="B17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>45143</v>
-      </c>
-      <c r="F17" s="13">
-        <v>45143</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="C17" s="21">
+        <v>4</v>
+      </c>
+      <c r="D17" s="21">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22">
+        <v>45144</v>
+      </c>
+      <c r="F17" s="22">
+        <v>45144</v>
+      </c>
+      <c r="G17" s="21">
         <f>C17-D17</f>
         <v>0</v>
       </c>
@@ -1306,105 +1201,103 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="21">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="21">
         <v>7</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="22">
         <v>45145</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="22">
         <v>45156</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="21">
         <v>4</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="21">
         <v>7</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="22">
         <v>45146</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="22">
         <v>45156</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="21">
         <v>4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="21">
         <v>3</v>
       </c>
-      <c r="E20" s="13">
-        <v>45142</v>
-      </c>
-      <c r="F20" s="13">
-        <v>45142</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="22">
+        <v>45136</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45136</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="21">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="21">
         <v>3</v>
       </c>
-      <c r="E21" s="13">
-        <v>45142</v>
-      </c>
-      <c r="F21" s="13">
-        <v>45142</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="E21" s="22">
+        <v>45136</v>
+      </c>
+      <c r="F21" s="22">
+        <v>45136</v>
+      </c>
+      <c r="G21" s="21">
         <f>C21-D21</f>
         <v>1</v>
       </c>
@@ -1412,24 +1305,24 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="37"/>
+      <c r="B22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="21">
         <v>3</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="21">
         <v>3</v>
       </c>
-      <c r="E22" s="13">
-        <v>45157</v>
-      </c>
-      <c r="F22" s="13">
-        <v>45157</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="E22" s="22">
+        <v>45136</v>
+      </c>
+      <c r="F22" s="22">
+        <v>45136</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1437,22 +1330,24 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
+      <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="21">
         <v>6</v>
       </c>
-      <c r="E23" s="13">
-        <v>45162</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="5">
+      <c r="E23" s="22">
+        <v>45161</v>
+      </c>
+      <c r="F23" s="22">
+        <v>45161</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -1460,34 +1355,34 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+    <row r="24" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="21">
         <v>1</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="13">
+      <c r="D25" s="21"/>
+      <c r="E25" s="22">
         <v>45162</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="5">
+      <c r="F25" s="22"/>
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1495,9 +1390,9 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
@@ -1507,33 +1402,33 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="21">
         <v>0.5</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="13">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22">
         <v>45162</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="5">
+      <c r="F27" s="22"/>
+      <c r="G27" s="21">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
@@ -1543,22 +1438,22 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <v>30</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="13">
+      <c r="D29" s="28"/>
+      <c r="E29" s="22">
         <v>45198</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="5">
+      <c r="F29" s="22"/>
+      <c r="G29" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1566,9 +1461,9 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
@@ -1578,22 +1473,22 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="21">
         <v>7</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="13">
+      <c r="D31" s="28"/>
+      <c r="E31" s="22">
         <v>45257</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="5">
+      <c r="F31" s="22"/>
+      <c r="G31" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1601,20 +1496,20 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="37"/>
+      <c r="B32" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="21">
         <v>7</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="13">
+      <c r="D32" s="28"/>
+      <c r="E32" s="22">
         <v>45257</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="5">
+      <c r="F32" s="22"/>
+      <c r="G32" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1622,20 +1517,20 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
-      <c r="B33" s="31" t="s">
+    <row r="33" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="37"/>
+      <c r="B33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="21">
         <v>6</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="13">
+      <c r="D33" s="28"/>
+      <c r="E33" s="22">
         <v>45257</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="5">
+      <c r="F33" s="22"/>
+      <c r="G33" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1643,9 +1538,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
@@ -1656,222 +1551,233 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="21">
         <v>20</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="13">
+      <c r="D35" s="28"/>
+      <c r="E35" s="22">
         <v>45257</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="5">
+      <c r="F35" s="22"/>
+      <c r="G35" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="36"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="28">
         <v>6</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="13">
+      <c r="D36" s="28"/>
+      <c r="E36" s="22">
         <v>45257</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="5">
+      <c r="F36" s="22"/>
+      <c r="G36" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+    <row r="37" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="28">
         <v>5</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="13">
+      <c r="D38" s="28"/>
+      <c r="E38" s="22">
         <v>45257</v>
       </c>
-      <c r="G38" s="5">
+      <c r="F38" s="32"/>
+      <c r="G38" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="28">
         <v>8</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="13">
+      <c r="D40" s="28"/>
+      <c r="E40" s="22">
         <v>45257</v>
       </c>
-      <c r="G40" s="5">
+      <c r="F40" s="32"/>
+      <c r="G40" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="28">
         <v>2.5</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="13">
+      <c r="D42" s="28"/>
+      <c r="E42" s="22">
         <v>45257</v>
       </c>
-      <c r="G42" s="5">
+      <c r="F42" s="32"/>
+      <c r="G42" s="21">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="12">
-        <v>5</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="13">
+      <c r="C43" s="28">
+        <v>4</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="22">
         <v>45257</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="2" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="28">
         <v>2</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="13">
+      <c r="D44" s="28"/>
+      <c r="E44" s="22">
         <v>45257</v>
       </c>
-      <c r="G44" s="5">
+      <c r="F44" s="32"/>
+      <c r="G44" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="28">
         <v>1</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="13">
+      <c r="D45" s="28"/>
+      <c r="E45" s="22">
         <v>45257</v>
       </c>
-      <c r="G45" s="5">
+      <c r="F45" s="32"/>
+      <c r="G45" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G46" s="5">
+    <row r="46" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="49" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="34">
         <f>SUM(C8:C45)</f>
         <v>150</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="34">
         <f>SUM(D8:D36)</f>
-        <v>56</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="34">
         <f>C49-D49</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1892,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD14661-423C-415A-8AB9-0D5C6D4539AE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1901,9 +1807,9 @@
     <col min="1" max="1" width="57.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.9140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
@@ -1912,8 +1818,8 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1923,22 +1829,22 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
-        <v>77</v>
+      <c r="A3" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1951,8 +1857,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1960,13 +1866,13 @@
     </row>
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A5" s="3"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1977,118 +1883,119 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="21">
         <v>5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="22">
         <v>45142</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="22">
         <v>45154</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="21">
         <f>C8-D8</f>
         <v>-1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="21">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="21">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="22">
         <v>45145</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="5">
+      <c r="F9" s="22"/>
+      <c r="G9" s="21">
         <f>C9-D9</f>
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="21">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="21">
         <v>5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="22">
         <v>45146</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="22">
         <v>45146</v>
       </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
@@ -2099,48 +2006,48 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="5">
+    <row r="12" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="21">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="21">
         <v>6</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="22">
         <v>45158</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="5">
+      <c r="F12" s="22"/>
+      <c r="G12" s="21">
         <f>C12-D12</f>
         <v>-2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="5">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="21">
         <v>30</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13">
+      <c r="D13" s="28"/>
+      <c r="E13" s="22">
         <v>45169</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="5">
+      <c r="F13" s="22"/>
+      <c r="G13" s="21">
         <f t="shared" ref="G13:G30" si="0">C13-D13</f>
         <v>30</v>
       </c>
@@ -2149,20 +2056,20 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="5">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="21">
         <v>5</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="13">
+      <c r="D14" s="28"/>
+      <c r="E14" s="22">
         <v>45169</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="5">
+      <c r="F14" s="22"/>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2171,20 +2078,20 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="39"/>
+      <c r="B15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="13">
+      <c r="D15" s="28"/>
+      <c r="E15" s="22">
         <v>45170</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="5">
+      <c r="F15" s="22"/>
+      <c r="G15" s="21">
         <f>C15-D15</f>
         <v>1</v>
       </c>
@@ -2193,9 +2100,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
@@ -2206,66 +2113,68 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="5">
+    <row r="17" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="21">
         <v>55</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="13">
+      <c r="D17" s="28"/>
+      <c r="E17" s="22">
         <v>45189</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="5">
+      <c r="F17" s="22"/>
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="12">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="39"/>
+      <c r="B18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="28">
         <v>20</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="13">
+      <c r="D18" s="28"/>
+      <c r="E18" s="22">
         <v>45194</v>
       </c>
-      <c r="G18" s="5">
+      <c r="F18" s="32"/>
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="28">
         <v>1</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="13">
+      <c r="D19" s="28"/>
+      <c r="E19" s="22">
         <v>45194</v>
       </c>
-      <c r="G19" s="5">
+      <c r="F19" s="32"/>
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
@@ -2276,22 +2185,22 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="26">
+    <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="28">
         <v>35</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="13">
+      <c r="D21" s="28"/>
+      <c r="E21" s="22">
         <v>45203</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="5">
+      <c r="F21" s="22"/>
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2300,20 +2209,20 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="21">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="13">
+      <c r="D22" s="28"/>
+      <c r="E22" s="22">
         <v>45205</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="5">
+      <c r="F22" s="22"/>
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2322,20 +2231,20 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="28">
         <v>1</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="13">
+      <c r="D23" s="28"/>
+      <c r="E23" s="22">
         <v>45208</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="5">
+      <c r="F23" s="22"/>
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2344,9 +2253,9 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -2358,137 +2267,153 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="28">
         <v>65</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="D25" s="28"/>
+      <c r="E25" s="22">
+        <v>45224</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="13">
-        <v>45224</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="36"/>
-      <c r="B26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="26">
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="40"/>
+      <c r="B26" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="28">
         <v>9</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="34">
+      <c r="D26" s="28"/>
+      <c r="E26" s="41">
         <v>45226</v>
       </c>
-      <c r="G26" s="5">
+      <c r="F26" s="32"/>
+      <c r="G26" s="21">
         <f>C26-D26</f>
         <v>9</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="34">
+      <c r="D27" s="28"/>
+      <c r="E27" s="41">
         <v>45230</v>
       </c>
-      <c r="G27" s="5">
+      <c r="F27" s="32"/>
+      <c r="G27" s="21">
         <f>C27-D27</f>
         <v>1</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+    <row r="28" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="25"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="26">
+      <c r="A29" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="28">
         <v>50</v>
       </c>
-      <c r="E29" s="34">
+      <c r="D29" s="27"/>
+      <c r="E29" s="41">
         <v>45230</v>
       </c>
-      <c r="G29" s="5">
+      <c r="F29" s="32"/>
+      <c r="G29" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="40"/>
+      <c r="B30" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <v>4</v>
       </c>
-      <c r="E30" s="34">
+      <c r="D30" s="27"/>
+      <c r="E30" s="41">
         <v>45250</v>
       </c>
-      <c r="G30" s="5">
+      <c r="F30" s="32"/>
+      <c r="G30" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+    <row r="31" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="33" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+    <row r="32" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="A33" s="43"/>
+      <c r="B33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="34">
         <f>SUM(C8:C30)</f>
         <v>300</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="34">
         <f>SUM(D8:D24)</f>
         <v>18</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="34">
         <f>C33-D33</f>
         <v>282</v>
       </c>
@@ -2497,13 +2422,6 @@
       <c r="K33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A25:A27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B764A-FFB6-49DB-B931-CBF57A15D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388173EA-3709-41F2-8C20-93F9A25E5100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Halfway Report</t>
-  </si>
-  <si>
-    <t>Progress Updates, Reflection, What went well, What did not go well, Improvements</t>
   </si>
   <si>
     <t>Methodology Essay</t>
@@ -195,9 +192,6 @@
     <t xml:space="preserve">Familiarization with a company,team meeting. </t>
   </si>
   <si>
-    <t>Obtaining and processing all the necessary information in regards that project for proposal.</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>Model testing and version control 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model testing and version control </t>
   </si>
   <si>
     <t>Coding</t>
@@ -277,30 +268,47 @@
     </r>
   </si>
   <si>
-    <t>First Phase
+    <t>First Stage
  Familiarization with company,project,scope.</t>
   </si>
   <si>
-    <t>The second phase 
+    <t>The second Stage 
 WS2 field configurations complete and in version control</t>
   </si>
   <si>
-    <t>The third phase
+    <t>The third Stage
  Script to run simulations through API complete and in version control.</t>
   </si>
   <si>
-    <t>The fourth phase
+    <t>The fourth Stage
  WS2 Observed data formatted and in version control.</t>
   </si>
   <si>
-    <t xml:space="preserve">The fifth phase
+    <t xml:space="preserve">The fifth Stage
 System for visualising model performance complete and in version control
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The sixth phase
+    <t xml:space="preserve">The sixth Stage
 Integrate testing with Git hub pull request process
 </t>
+  </si>
+  <si>
+    <t>Obtaining and processing all the necessary
+ information in regards that project for proposal.</t>
+  </si>
+  <si>
+    <t>Progress Updates, Reflection, What went well, 
+What did not go well, Improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model in version control </t>
+  </si>
+  <si>
+    <t>The draft proposal was unacceptable. The reason was the poor quality of several sections that needed to be added or corrected.</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -310,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,27 +359,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Century Gothic"/>
@@ -397,13 +384,121 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -445,102 +540,158 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,963 +982,1040 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G49"/>
+    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="27.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.9140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.58203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="65"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="65"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
+      <c r="A3" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="65"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="65"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="3"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="65"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="45"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:11" s="29" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="40">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="40">
         <v>1</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="41">
         <v>45140</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="59">
         <v>45163</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="40">
         <f>C8-D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="44"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="40">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="40">
         <v>1</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="41">
         <v>45136</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="59">
         <v>45136</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="40">
         <f>C10-D10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="26" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A11" s="68"/>
+      <c r="B11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="40">
         <v>2</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="40">
         <v>3</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="41">
         <v>45140</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="59">
         <v>45143</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="40">
         <f t="shared" ref="G11:G46" si="0">C11-D11</f>
         <v>-1</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="26" t="s">
+      <c r="I11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A12" s="68"/>
+      <c r="B12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="40">
         <v>3</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="40">
         <v>3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="41">
         <v>45140</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="59">
         <v>45144</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="27" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A13" s="68"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="40">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="40">
         <v>1</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="41">
         <v>45140</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="59">
         <v>45140</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="40">
         <f>C13-D13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="27" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A14" s="68"/>
+      <c r="B14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="40">
         <v>4</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="40">
         <v>4</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="41">
         <v>45140</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="59">
         <v>45143</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="I14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A15" s="68"/>
+      <c r="B15" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="40">
         <v>7</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="40">
         <v>8</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="41">
         <v>45142</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="59">
         <v>45150</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="40">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="27" t="s">
+      <c r="I15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A16" s="68"/>
+      <c r="B16" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="40">
         <v>4</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="40">
         <v>4</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="41">
         <v>45136</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="59">
         <v>45136</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="26" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A17" s="68"/>
+      <c r="B17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="40">
         <v>4</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="40">
         <v>4</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="41">
         <v>45144</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="59">
         <v>45144</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="40">
         <f>C17-D17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A18" s="68"/>
+      <c r="B18" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="40">
         <v>5</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="40">
         <v>7</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="41">
         <v>45145</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="59">
         <v>45156</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="40">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27" t="s">
+      <c r="I18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A19" s="68"/>
+      <c r="B19" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="40">
         <v>4</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="40">
         <v>7</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="41">
         <v>45146</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="59">
         <v>45156</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="40">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="27" t="s">
+      <c r="I19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A20" s="68"/>
+      <c r="B20" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="40">
         <v>4</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="40">
         <v>3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="41">
         <v>45136</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="59">
         <v>45136</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="27" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A21" s="68"/>
+      <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="40">
         <v>4</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="40">
         <v>3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="41">
         <v>45136</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="59">
         <v>45136</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="40">
         <f>C21-D21</f>
         <v>1</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="27" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A22" s="68"/>
+      <c r="B22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="40">
         <v>3</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="40">
         <v>3</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="41">
         <v>45136</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="59">
         <v>45136</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="27" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A23" s="68"/>
+      <c r="B23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="40">
         <v>3</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="40">
         <v>6</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="41">
         <v>45161</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="59">
+        <v>45173</v>
+      </c>
+      <c r="G23" s="40">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="44"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="40">
+        <v>1</v>
+      </c>
+      <c r="D25" s="40">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41">
         <v>45161</v>
       </c>
-      <c r="G23" s="21">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="F25" s="59">
+        <v>45173</v>
+      </c>
+      <c r="G25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="44"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A27" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="41">
+        <v>45162</v>
+      </c>
+      <c r="F27" s="59">
+        <v>45175</v>
+      </c>
+      <c r="G27" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="44"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" s="29" customFormat="1" ht="52.5" x14ac:dyDescent="0.65">
+      <c r="A29" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="48">
+        <v>30</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="41">
+        <v>45198</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="40">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="44"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A31" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="40">
+        <v>7</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" s="29" customFormat="1" ht="52.5" x14ac:dyDescent="0.65">
+      <c r="A32" s="68"/>
+      <c r="B32" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="40">
+        <v>7</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" s="29" customFormat="1" ht="52.5" x14ac:dyDescent="0.65">
+      <c r="A33" s="68"/>
+      <c r="B33" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="40">
+        <v>6</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="44"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A35" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="40">
+        <v>20</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A36" s="69"/>
+      <c r="B36" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="48">
+        <v>6</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F36" s="59"/>
+      <c r="G36" s="40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="48">
+        <v>5</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F38" s="62"/>
+      <c r="G38" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="48">
+        <v>8</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="50"/>
+    </row>
+    <row r="42" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A42" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F42" s="62"/>
+      <c r="G42" s="40">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="48">
+        <v>4</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F43" s="62"/>
+      <c r="G43" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="48">
+        <v>2</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="48">
         <v>1</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22">
-        <v>45162</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21">
+      <c r="D45" s="48"/>
+      <c r="E45" s="41">
+        <v>45257</v>
+      </c>
+      <c r="F45" s="62"/>
+      <c r="G45" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22">
-        <v>45162</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="28">
-        <v>30</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="22">
-        <v>45198</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="21">
-        <v>7</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
-      <c r="B32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="21">
-        <v>7</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
-      <c r="B33" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="21">
+    </row>
+    <row r="46" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="50"/>
+    </row>
+    <row r="48" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A49" s="52"/>
+      <c r="B49" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="21">
-        <v>20</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
-      <c r="B36" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="28">
-        <v>6</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="28">
-        <v>5</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="28">
-        <v>8</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="21">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="28">
-        <v>4</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="28">
-        <v>2</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="28">
-        <v>1</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="22">
-        <v>45257</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="49" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="34">
+      <c r="C49" s="54">
         <f>SUM(C8:C45)</f>
         <v>150</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="54">
         <f>SUM(D8:D36)</f>
-        <v>58</v>
-      </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36" t="s">
+        <v>59.5</v>
+      </c>
+      <c r="E49" s="55"/>
+      <c r="F49" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="54">
         <f>C49-D49</f>
-        <v>92</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E50" s="31"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E51" s="31"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="46"/>
+    </row>
+    <row r="52" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E52" s="31"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="46"/>
+    </row>
+    <row r="53" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E53" s="31"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="46"/>
+    </row>
+    <row r="54" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E54" s="31"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E55" s="31"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="46"/>
+    </row>
+    <row r="56" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E56" s="31"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="46"/>
+    </row>
+    <row r="57" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E57" s="31"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="46"/>
+    </row>
+    <row r="58" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E58" s="31"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="46"/>
+    </row>
+    <row r="59" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E59" s="31"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E60" s="31"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="46"/>
+    </row>
+    <row r="61" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="E61" s="31"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A10:A23"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -1798,18 +2026,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD14661-423C-415A-8AB9-0D5C6D4539AE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.9140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
@@ -1818,8 +2046,8 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1829,22 +2057,22 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
-      <c r="A3" s="7" t="s">
-        <v>71</v>
+      <c r="A3" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1857,22 +2085,22 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="3"/>
-      <c r="B5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1883,324 +2111,342 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:11" ht="37" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="21">
+    <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="12">
         <v>4</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="12">
         <v>5</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="13">
         <v>45142</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="13">
         <v>45154</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="12">
         <f>C8-D8</f>
         <v>-1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="21">
+    <row r="9" spans="1:11" ht="0.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="13">
         <v>45145</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21">
+      <c r="F9" s="13"/>
+      <c r="G9" s="12">
         <f>C9-D9</f>
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="21">
+    <row r="10" spans="1:11" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12">
         <v>5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="12">
         <v>5</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="13">
         <v>45146</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="13">
         <v>45146</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="21">
+    <row r="12" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="12">
         <v>4</v>
       </c>
-      <c r="D12" s="21">
-        <v>6</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13">
         <v>45158</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21">
+      <c r="F12" s="13">
+        <v>45166</v>
+      </c>
+      <c r="G12" s="12">
         <f>C12-D12</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="21">
-        <v>30</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="22">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="71"/>
+      <c r="B13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13">
         <v>45169</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21">
+      <c r="F13" s="13">
+        <v>45175</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" ref="G13:G30" si="0">C13-D13</f>
-        <v>30</v>
+        <v>-8</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="21">
-        <v>5</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="22">
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="71"/>
+      <c r="B14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="13">
         <v>45169</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="F14" s="13">
+        <v>45175</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="22">
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="71"/>
+      <c r="B15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="13">
         <v>45170</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21">
+      <c r="F15" s="13">
+        <v>45175</v>
+      </c>
+      <c r="G15" s="12">
         <f>C15-D15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+    <row r="16" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="21">
+    <row r="17" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12">
         <v>55</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="22">
+      <c r="D17" s="20"/>
+      <c r="E17" s="13">
         <v>45189</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21">
+      <c r="F17" s="13"/>
+      <c r="G17" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="28">
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="71"/>
+      <c r="B18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="20">
         <v>20</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="22">
+      <c r="D18" s="20"/>
+      <c r="E18" s="13">
         <v>45194</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="21">
+      <c r="F18" s="24"/>
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="28">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="71"/>
+      <c r="B19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="22">
+      <c r="D19" s="20"/>
+      <c r="E19" s="13">
         <v>45194</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="21">
+      <c r="F19" s="24"/>
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="28">
+    <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="20">
         <v>35</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="22">
+      <c r="D21" s="20"/>
+      <c r="E21" s="13">
         <v>45203</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21">
+      <c r="F21" s="13"/>
+      <c r="G21" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2209,20 +2455,20 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
-      <c r="B22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="21">
+    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="71"/>
+      <c r="B22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="12">
         <v>8</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="22">
+      <c r="D22" s="20"/>
+      <c r="E22" s="13">
         <v>45205</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2231,20 +2477,20 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
-      <c r="B23" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="28">
+    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="71"/>
+      <c r="B23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="20">
         <v>1</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="22">
+      <c r="D23" s="20"/>
+      <c r="E23" s="13">
         <v>45208</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21">
+      <c r="F23" s="13"/>
+      <c r="G23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2253,175 +2499,183 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="28">
+    <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="20">
         <v>65</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="22">
+      <c r="D25" s="20"/>
+      <c r="E25" s="13">
         <v>45224</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="21">
+      <c r="F25" s="24"/>
+      <c r="G25" s="12">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="28">
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="71"/>
+      <c r="B26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="20">
         <v>9</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="41">
+      <c r="D26" s="20"/>
+      <c r="E26" s="32">
         <v>45226</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="21">
+      <c r="F26" s="24"/>
+      <c r="G26" s="12">
         <f>C26-D26</f>
         <v>9</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="28">
+    <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="71"/>
+      <c r="B27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="20">
         <v>1</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="41">
+      <c r="D27" s="20"/>
+      <c r="E27" s="32">
         <v>45230</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21">
+      <c r="F27" s="24"/>
+      <c r="G27" s="12">
         <f>C27-D27</f>
         <v>1</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="25"/>
+    <row r="28" spans="1:11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="17"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="28">
+    <row r="29" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="20">
         <v>50</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="41">
+      <c r="D29" s="19"/>
+      <c r="E29" s="32">
         <v>45230</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21">
+      <c r="F29" s="24"/>
+      <c r="G29" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="28">
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="71"/>
+      <c r="B30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="20">
         <v>4</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="41">
+      <c r="D30" s="19"/>
+      <c r="E30" s="32">
         <v>45250</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21">
+      <c r="F30" s="24"/>
+      <c r="G30" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+    <row r="31" spans="1:11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:11" customFormat="1" ht="18" x14ac:dyDescent="0.4">
-      <c r="A33" s="43"/>
-      <c r="B33" s="33" t="s">
+    <row r="32" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="34"/>
+      <c r="B33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="26">
         <f>SUM(C8:C30)</f>
         <v>300</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="26">
         <f>SUM(D8:D24)</f>
-        <v>18</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="26">
         <f>C33-D33</f>
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388173EA-3709-41F2-8C20-93F9A25E5100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD905BED-6F0A-490D-B36B-F8BF5502A535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Academic Timeline(03.08.2023)" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>I needed to familiarize myself with some new programs and tools. The lack of experience in programming made itself felt, so the delay was 20 hours.</t>
+  </si>
+  <si>
+    <t>wrong calculation plus delay , I had to ask for an extension. Also I was working on essay</t>
   </si>
 </sst>
 </file>
@@ -984,8 +990,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="27.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1618,16 +1624,22 @@
       <c r="C29" s="48">
         <v>30</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="48">
+        <v>30</v>
+      </c>
       <c r="E29" s="41">
         <v>45198</v>
       </c>
-      <c r="F29" s="59"/>
+      <c r="F29" s="59">
+        <v>45219</v>
+      </c>
       <c r="G29" s="40">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I29" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
@@ -1939,7 +1951,7 @@
       </c>
       <c r="D49" s="54">
         <f>SUM(D8:D36)</f>
-        <v>59.5</v>
+        <v>89.5</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="63" t="s">
@@ -1947,7 +1959,7 @@
       </c>
       <c r="G49" s="54">
         <f>C49-D49</f>
-        <v>90.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
@@ -2026,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD14661-423C-415A-8AB9-0D5C6D4539AE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2036,10 +2048,12 @@
     <col min="2" max="2" width="56.33203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="2"/>
+    <col min="9" max="9" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="9.1640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2369,16 +2383,22 @@
       <c r="C17" s="12">
         <v>55</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20">
+        <v>75</v>
+      </c>
       <c r="E17" s="13">
         <v>45189</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13">
+        <v>45194</v>
+      </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>-20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="71"/>
@@ -2388,14 +2408,18 @@
       <c r="C18" s="20">
         <v>20</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20">
+        <v>25</v>
+      </c>
       <c r="E18" s="13">
         <v>45194</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="13">
+        <v>45196</v>
+      </c>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -2407,14 +2431,18 @@
       <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
       <c r="E19" s="13">
         <v>45194</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="13">
+        <v>45196</v>
+      </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2593,7 +2621,9 @@
       <c r="C29" s="20">
         <v>50</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
       <c r="E29" s="32">
         <v>45230</v>
       </c>
@@ -2652,8 +2682,8 @@
         <v>300</v>
       </c>
       <c r="D33" s="26">
-        <f>SUM(D8:D24)</f>
-        <v>60</v>
+        <f>SUM(D8:D31)</f>
+        <v>161</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="28" t="s">
@@ -2661,7 +2691,7 @@
       </c>
       <c r="G33" s="26">
         <f>C33-D33</f>
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2682,12 +2712,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED5B6197DC005B418EDBAD81ECC78C65" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6af9fa09ccb0c32c90fa7665eb902fd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54363156-af09-451d-95c0-4bb150694616" xmlns:ns4="0588193f-5437-40c0-903e-14b41885f902" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ada4b5171e24161cb51969d825ceddb" ns3:_="" ns4:_="">
     <xsd:import namespace="54363156-af09-451d-95c0-4bb150694616"/>
@@ -2904,7 +2928,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2913,24 +2937,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9761D45E-1D6F-403A-BC05-AA70C5A970CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54363156-af09-451d-95c0-4bb150694616"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0588193f-5437-40c0-903e-14b41885f902"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76EE25-C5C4-4176-B8D4-C72CCF8A1B82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2949,10 +2962,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD350447-97AF-434E-BC5F-409FF1FC1E65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9761D45E-1D6F-403A-BC05-AA70C5A970CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54363156-af09-451d-95c0-4bb150694616"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0588193f-5437-40c0-903e-14b41885f902"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TimeLine.xlsx
+++ b/TimeLine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD905BED-6F0A-490D-B36B-F8BF5502A535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941678FA-D01D-45F5-96E0-C4771D1496AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{812A7689-42C3-4291-B67A-7342A4DE46D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Academic Timeline(03.08.2023)" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Tasks / Activity</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Working on a model</t>
-  </si>
-  <si>
-    <t>Model testing and version control 80</t>
   </si>
   <si>
     <t>Coding</t>
@@ -315,6 +312,15 @@
   </si>
   <si>
     <t>wrong calculation plus delay , I had to ask for an extension. Also I was working on essay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model testing and version control </t>
+  </si>
+  <si>
+    <t>gui was easy</t>
+  </si>
+  <si>
+    <t>took way longer than I expected</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +540,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -548,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,6 +697,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -990,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="27.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1032,7 +1054,7 @@
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1059,11 +1081,11 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
       <c r="F5" s="56"/>
@@ -1143,7 +1165,7 @@
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="44"/>
@@ -1152,7 +1174,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="45" t="s">
@@ -1179,7 +1201,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A11" s="68"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="45" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1228,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A12" s="68"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="45" t="s">
         <v>20</v>
       </c>
@@ -1231,7 +1253,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A13" s="68"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
@@ -1256,7 +1278,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="46" t="s">
         <v>22</v>
       </c>
@@ -1283,7 +1305,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A15" s="68"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="45" t="s">
         <v>47</v>
       </c>
@@ -1310,7 +1332,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="68"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="46" t="s">
         <v>23</v>
       </c>
@@ -1335,7 +1357,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="68"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="45" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1382,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A18" s="68"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="46" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1409,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A19" s="68"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="46" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +1436,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A20" s="68"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="46" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1461,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A21" s="68"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1486,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="46" t="s">
         <v>29</v>
       </c>
@@ -1489,7 +1511,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A23" s="68"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="46" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1541,7 @@
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="44"/>
@@ -1551,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -1562,7 +1584,7 @@
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="44"/>
@@ -1595,7 +1617,7 @@
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -1606,7 +1628,7 @@
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
       <c r="E28" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="44"/>
@@ -1619,7 +1641,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="48">
         <v>30</v>
@@ -1638,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -1655,7 +1677,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="72" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -1678,7 +1700,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="29" customFormat="1" ht="52.5" x14ac:dyDescent="0.65">
-      <c r="A32" s="68"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="47" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1721,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="29" customFormat="1" ht="52.5" x14ac:dyDescent="0.65">
-      <c r="A33" s="68"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="49" t="s">
         <v>35</v>
       </c>
@@ -1732,7 +1754,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="45" t="s">
@@ -1752,7 +1774,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A36" s="69"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="45" t="s">
         <v>37</v>
       </c>
@@ -2038,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD14661-423C-415A-8AB9-0D5C6D4539AE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2047,11 +2069,11 @@
     <col min="1" max="1" width="53.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="2"/>
+    <col min="9" max="9" width="20" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.1640625" style="2"/>
   </cols>
@@ -2080,7 +2102,7 @@
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2107,11 +2129,11 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2161,10 +2183,10 @@
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="12">
         <v>4</v>
@@ -2236,26 +2258,26 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
-        <v>70</v>
+      <c r="A12" s="75" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -2281,7 +2303,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="71"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="18" t="s">
         <v>63</v>
       </c>
@@ -2307,9 +2329,9 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="71"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12">
         <v>0.5</v>
@@ -2333,7 +2355,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="71"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="19" t="s">
         <v>51</v>
       </c>
@@ -2359,26 +2381,26 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
-        <v>71</v>
+      <c r="A17" s="75" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12">
         <v>55</v>
@@ -2397,11 +2419,11 @@
         <v>-20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="71"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="18" t="s">
         <v>58</v>
       </c>
@@ -2424,7 +2446,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="71"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
@@ -2460,8 +2482,8 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="71" t="s">
-        <v>72</v>
+      <c r="A21" s="75" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>59</v>
@@ -2469,14 +2491,18 @@
       <c r="C21" s="20">
         <v>35</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="20">
+        <v>35</v>
+      </c>
       <c r="E21" s="13">
         <v>45203</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="32">
+        <v>45245</v>
+      </c>
       <c r="G21" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -2484,21 +2510,25 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="71"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="12">
         <v>8</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="20">
+        <v>8</v>
+      </c>
       <c r="E22" s="13">
         <v>45205</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="32">
+        <v>45246</v>
+      </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -2506,18 +2536,22 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="71"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
       <c r="E23" s="13">
         <v>45208</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="32">
+        <v>45246</v>
+      </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2527,12 +2561,14 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="26" x14ac:dyDescent="0.6">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="67" t="s">
+        <v>78</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="2"/>
@@ -2541,8 +2577,8 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="71" t="s">
-        <v>73</v>
+      <c r="A25" s="75" t="s">
+        <v>72</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>60</v>
@@ -2550,61 +2586,78 @@
       <c r="C25" s="20">
         <v>65</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="20">
+        <v>35</v>
+      </c>
       <c r="E25" s="13">
         <v>45224</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="13">
+        <v>45205</v>
+      </c>
       <c r="G25" s="12">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H25" s="2"/>
+      <c r="I25" s="13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="71"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="18" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C26" s="20">
         <v>9</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="20">
+        <v>5</v>
+      </c>
       <c r="E26" s="32">
         <v>45226</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="13">
+        <v>45205</v>
+      </c>
       <c r="G26" s="12">
         <f>C26-D26</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="71"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="20">
+        <v>0</v>
+      </c>
       <c r="E27" s="32">
         <v>45230</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="13">
+        <v>45205</v>
+      </c>
       <c r="G27" s="12">
         <f>C27-D27</f>
         <v>1</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="67" t="s">
+        <v>78</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="17"/>
       <c r="I28" s="2"/>
@@ -2612,8 +2665,8 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="71" t="s">
-        <v>74</v>
+      <c r="A29" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>61</v>
@@ -2622,33 +2675,42 @@
         <v>50</v>
       </c>
       <c r="D29" s="19">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E29" s="32">
-        <v>45230</v>
-      </c>
-      <c r="F29" s="24"/>
+        <v>45249</v>
+      </c>
+      <c r="F29" s="32">
+        <v>45236</v>
+      </c>
       <c r="G29" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>-13</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="71"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="20">
         <v>4</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
       <c r="E30" s="32">
         <v>45250</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="32">
+        <v>45236</v>
+      </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2668,7 +2730,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="24"/>
       <c r="G32" s="19"/>
     </row>
@@ -2683,15 +2745,15 @@
       </c>
       <c r="D33" s="26">
         <f>SUM(D8:D31)</f>
-        <v>161</v>
-      </c>
-      <c r="E33" s="27"/>
+        <v>308</v>
+      </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="26">
         <f>C33-D33</f>
-        <v>139</v>
+        <v>-8</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
